--- a/analisis/comps.xlsx
+++ b/analisis/comps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lator\Documents\GitHub\localBinaryCuda\analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FAACA2-D154-43C7-A49D-2515F03B7441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95919CF8-4C77-4E74-BAAD-31A699B893C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="3900" windowWidth="28790" windowHeight="15370" xr2:uid="{08F5538C-5B58-4D43-AB13-45B1318EEE28}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{08F5538C-5B58-4D43-AB13-45B1318EEE28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2856,7 +2856,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speedup (%)</a:t>
+                  <a:t>Speedup </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8727,28 +8727,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC08387-6E04-4245-8EC5-D15AF380C582}">
   <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.46484375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="22.36328125" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.265625" customWidth="1"/>
+    <col min="6" max="6" width="22.46484375" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>1.2414E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>1.5497E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>6</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>2.3084E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>8</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>3.7102999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>10</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>4.9514000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>14</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>8.7716000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>20</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0.15697900000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>30</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>0.25220700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>40</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>0.31032900000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>50</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>0.363811</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>60</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>0.44151200000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>70</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>0.51768700000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>80</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>0.48886099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>90</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>0.66816799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>100</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>0.73725700000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -9195,447 +9195,447 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
-        <f>B3/C3</f>
+        <f t="shared" ref="B22:B36" si="0">B3/C3</f>
         <v>367.02694235588973</v>
       </c>
       <c r="C22">
-        <f>B3/D3</f>
+        <f t="shared" ref="C22:C36" si="1">B3/D3</f>
         <v>634.64247020585049</v>
       </c>
       <c r="D22">
-        <f>B3/E3</f>
+        <f t="shared" ref="D22:D36" si="2">B3/E3</f>
         <v>27.036601126188497</v>
       </c>
       <c r="E22">
-        <f>B3/F3</f>
+        <f t="shared" ref="E22:E36" si="3">B3/F3</f>
         <v>47.546672077922082</v>
       </c>
       <c r="F22">
-        <f>B3/G3</f>
+        <f t="shared" ref="F22:F36" si="4">B3/G3</f>
         <v>36.899212598425201</v>
       </c>
       <c r="G22">
-        <f>B3/H3</f>
+        <f t="shared" ref="G22:G36" si="5">B3/H3</f>
         <v>47.186644111487034</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>44.926089211618262</v>
       </c>
       <c r="C23">
-        <f>B4/D4</f>
+        <f t="shared" si="1"/>
         <v>67.13494031933034</v>
       </c>
       <c r="D23">
-        <f>B4/E4</f>
+        <f t="shared" si="2"/>
         <v>42.9671610694975</v>
       </c>
       <c r="E23">
-        <f>B4/F4</f>
+        <f t="shared" si="3"/>
         <v>60.660760557462012</v>
       </c>
       <c r="F23">
-        <f>B4/G4</f>
+        <f t="shared" si="4"/>
         <v>39.565823131737616</v>
       </c>
       <c r="G23">
-        <f>B4/H4</f>
+        <f t="shared" si="5"/>
         <v>55.893076079241141</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>45.639607980945691</v>
       </c>
       <c r="C24">
-        <f>B5/D5</f>
+        <f t="shared" si="1"/>
         <v>78.595750403442707</v>
       </c>
       <c r="D24">
-        <f>B5/E5</f>
+        <f t="shared" si="2"/>
         <v>40.929897051614262</v>
       </c>
       <c r="E24">
-        <f>B5/F5</f>
+        <f t="shared" si="3"/>
         <v>54.460047523645343</v>
       </c>
       <c r="F24">
-        <f>B5/G5</f>
+        <f t="shared" si="4"/>
         <v>40.254709508558044</v>
       </c>
       <c r="G24">
-        <f>B5/H5</f>
+        <f t="shared" si="5"/>
         <v>50.635765032056838</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>33.901998497370393</v>
       </c>
       <c r="C25">
-        <f>B6/D6</f>
+        <f t="shared" si="1"/>
         <v>57.981548108552623</v>
       </c>
       <c r="D25">
-        <f>B6/E6</f>
+        <f t="shared" si="2"/>
         <v>28.336113134560797</v>
       </c>
       <c r="E25">
-        <f>B6/F6</f>
+        <f t="shared" si="3"/>
         <v>34.674156267289604</v>
       </c>
       <c r="F25">
-        <f>B6/G6</f>
+        <f t="shared" si="4"/>
         <v>23.021284845516508</v>
       </c>
       <c r="G25">
-        <f>B6/H6</f>
+        <f t="shared" si="5"/>
         <v>30.404253025361829</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>10</v>
       </c>
       <c r="B26">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>38.309933334914952</v>
       </c>
       <c r="C26">
-        <f>B7/D7</f>
+        <f t="shared" si="1"/>
         <v>63.115184678522574</v>
       </c>
       <c r="D26">
-        <f>B7/E7</f>
+        <f t="shared" si="2"/>
         <v>29.543204229861505</v>
       </c>
       <c r="E26">
-        <f>B7/F7</f>
+        <f t="shared" si="3"/>
         <v>35.048770429535736</v>
       </c>
       <c r="F26">
-        <f>B7/G7</f>
+        <f t="shared" si="4"/>
         <v>29.372319333539483</v>
       </c>
       <c r="G26">
-        <f>B7/H7</f>
+        <f t="shared" si="5"/>
         <v>32.613038736518966</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>14</v>
       </c>
       <c r="B27">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>38.934375474275306</v>
       </c>
       <c r="C27">
-        <f>B8/D8</f>
+        <f t="shared" si="1"/>
         <v>59.043614352459208</v>
       </c>
       <c r="D27">
-        <f>B8/E8</f>
+        <f t="shared" si="2"/>
         <v>29.37644283620374</v>
       </c>
       <c r="E27">
-        <f>B8/F8</f>
+        <f t="shared" si="3"/>
         <v>31.284813599834148</v>
       </c>
       <c r="F27">
-        <f>B8/G8</f>
+        <f t="shared" si="4"/>
         <v>27.67794836384822</v>
       </c>
       <c r="G27">
-        <f>B8/H8</f>
+        <f t="shared" si="5"/>
         <v>29.246500068402572</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>29.783874041915436</v>
       </c>
       <c r="C28">
-        <f>B9/D9</f>
+        <f t="shared" si="1"/>
         <v>41.354384139514366</v>
       </c>
       <c r="D28">
-        <f>B9/E9</f>
+        <f t="shared" si="2"/>
         <v>23.275002546084124</v>
       </c>
       <c r="E28">
-        <f>B9/F9</f>
+        <f t="shared" si="3"/>
         <v>23.078451420709154</v>
       </c>
       <c r="F28">
-        <f>B9/G9</f>
+        <f t="shared" si="4"/>
         <v>25.136945149071607</v>
       </c>
       <c r="G28">
-        <f>B9/H9</f>
+        <f t="shared" si="5"/>
         <v>23.293536078074137</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>30</v>
       </c>
       <c r="B29">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>37.998290416241609</v>
       </c>
       <c r="C29">
-        <f>B10/D10</f>
+        <f t="shared" si="1"/>
         <v>49.069676373296275</v>
       </c>
       <c r="D29">
-        <f>B10/E10</f>
+        <f t="shared" si="2"/>
         <v>25.9917758743645</v>
       </c>
       <c r="E29">
-        <f>B10/F10</f>
+        <f t="shared" si="3"/>
         <v>39.026193532787971</v>
       </c>
       <c r="F29">
-        <f>B10/G10</f>
+        <f t="shared" si="4"/>
         <v>37.887223423816152</v>
       </c>
       <c r="G29">
-        <f>B10/H10</f>
+        <f t="shared" si="5"/>
         <v>26.879202401202186</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>40</v>
       </c>
       <c r="B30">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>51.35730546165059</v>
       </c>
       <c r="C30">
-        <f>B11/D11</f>
+        <f t="shared" si="1"/>
         <v>56.094254103969476</v>
       </c>
       <c r="D30">
-        <f>B11/E11</f>
+        <f t="shared" si="2"/>
         <v>28.167256917157406</v>
       </c>
       <c r="E30">
-        <f>B11/F11</f>
+        <f t="shared" si="3"/>
         <v>25.825711023911861</v>
       </c>
       <c r="F30">
-        <f>B11/G11</f>
+        <f t="shared" si="4"/>
         <v>37.395578238973826</v>
       </c>
       <c r="G30">
-        <f>B11/H11</f>
+        <f t="shared" si="5"/>
         <v>26.679968678402595</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>50</v>
       </c>
       <c r="B31">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>48.206390769361775</v>
       </c>
       <c r="C31">
-        <f>B12/D12</f>
+        <f t="shared" si="1"/>
         <v>52.995346660165765</v>
       </c>
       <c r="D31">
-        <f>B12/E12</f>
+        <f t="shared" si="2"/>
         <v>49.927908395375674</v>
       </c>
       <c r="E31">
-        <f>B12/F12</f>
+        <f t="shared" si="3"/>
         <v>37.070628744802292</v>
       </c>
       <c r="F31">
-        <f>B12/G12</f>
+        <f t="shared" si="4"/>
         <v>38.508383783416093</v>
       </c>
       <c r="G31">
-        <f>B12/H12</f>
+        <f t="shared" si="5"/>
         <v>37.34544035227082</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>60</v>
       </c>
       <c r="B32">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>90.227474702395384</v>
       </c>
       <c r="C32">
-        <f>B13/D13</f>
+        <f t="shared" si="1"/>
         <v>77.523717630779359</v>
       </c>
       <c r="D32">
-        <f>B13/E13</f>
+        <f t="shared" si="2"/>
         <v>45.549242071752175</v>
       </c>
       <c r="E32">
-        <f>B13/F13</f>
+        <f t="shared" si="3"/>
         <v>58.632457105390081</v>
       </c>
       <c r="F32">
-        <f>B13/G13</f>
+        <f t="shared" si="4"/>
         <v>50.842405224184539</v>
       </c>
       <c r="G32">
-        <f>B13/H13</f>
+        <f t="shared" si="5"/>
         <v>42.128035025095578</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>70</v>
       </c>
       <c r="B33">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>87.275402051850833</v>
       </c>
       <c r="C33">
-        <f>B14/D14</f>
+        <f t="shared" si="1"/>
         <v>72.200443856967951</v>
       </c>
       <c r="D33">
-        <f>B14/E14</f>
+        <f t="shared" si="2"/>
         <v>58.529547535923314</v>
       </c>
       <c r="E33">
-        <f>B14/F14</f>
+        <f t="shared" si="3"/>
         <v>67.107908013016129</v>
       </c>
       <c r="F33">
-        <f>B14/G14</f>
+        <f t="shared" si="4"/>
         <v>50.900948049322828</v>
       </c>
       <c r="G33">
-        <f>B14/H14</f>
+        <f t="shared" si="5"/>
         <v>48.640779080795923</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>80</v>
       </c>
       <c r="B34">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>68.179323384267803</v>
       </c>
       <c r="C34">
-        <f>B15/D15</f>
+        <f t="shared" si="1"/>
         <v>67.393790434815315</v>
       </c>
       <c r="D34">
-        <f>B15/E15</f>
+        <f t="shared" si="2"/>
         <v>61.898163202293894</v>
       </c>
       <c r="E34">
-        <f>B15/F15</f>
+        <f t="shared" si="3"/>
         <v>55.624935241329126</v>
       </c>
       <c r="F34">
-        <f>B15/G15</f>
+        <f t="shared" si="4"/>
         <v>55.914066431315952</v>
       </c>
       <c r="G34">
-        <f>B15/H15</f>
+        <f t="shared" si="5"/>
         <v>58.641824567719659</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>90</v>
       </c>
       <c r="B35">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>86.904407721669443</v>
       </c>
       <c r="C35">
-        <f>B16/D16</f>
+        <f t="shared" si="1"/>
         <v>84.580418881649933</v>
       </c>
       <c r="D35">
-        <f>B16/E16</f>
+        <f t="shared" si="2"/>
         <v>59.242272009705182</v>
       </c>
       <c r="E35">
-        <f>B16/F16</f>
+        <f t="shared" si="3"/>
         <v>63.954335499837974</v>
       </c>
       <c r="F35">
-        <f>B16/G16</f>
+        <f t="shared" si="4"/>
         <v>56.471547114088779</v>
       </c>
       <c r="G35">
-        <f>B16/H16</f>
+        <f t="shared" si="5"/>
         <v>57.006793201709748</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>100</v>
       </c>
       <c r="B36">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>110.78600464507886</v>
       </c>
       <c r="C36">
-        <f>B17/D17</f>
+        <f t="shared" si="1"/>
         <v>102.4222145028224</v>
       </c>
       <c r="D36">
-        <f>B17/E17</f>
+        <f t="shared" si="2"/>
         <v>70.988790928010033</v>
       </c>
       <c r="E36">
-        <f>B17/F17</f>
+        <f t="shared" si="3"/>
         <v>63.444147083426351</v>
       </c>
       <c r="F36">
-        <f>B17/G17</f>
+        <f t="shared" si="4"/>
         <v>65.206691555663681</v>
       </c>
       <c r="G36">
-        <f>B17/H17</f>
+        <f t="shared" si="5"/>
         <v>63.988096416853274</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -9666,250 +9666,250 @@
         <v>3.4610000000000005E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>4</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B81" si="0">C4-D4</f>
+        <f t="shared" ref="B68:B81" si="6">C4-D4</f>
         <v>6.3779999999999983E-3</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C81" si="1">E4-F4</f>
+        <f t="shared" ref="C68:C81" si="7">E4-F4</f>
         <v>5.8799999999999998E-3</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D81" si="2">G4-H4</f>
+        <f t="shared" ref="D68:D81" si="8">G4-H4</f>
         <v>6.3950000000000014E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>6</v>
       </c>
       <c r="B69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.0738999999999999E-2</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.0950000000000006E-3</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.953E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>8</v>
       </c>
       <c r="B70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.3818999999999998E-2</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.2769999999999987E-3</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.1899E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>10</v>
       </c>
       <c r="B71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.6566000000000001E-2</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>8.5859999999999964E-3</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5.4629999999999956E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>14</v>
       </c>
       <c r="B72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.2441000000000003E-2</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.3269999999999984E-3</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.9710000000000032E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>20</v>
       </c>
       <c r="B73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.4350000000000006E-2</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-1.3380000000000059E-3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1.1511999999999994E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>30</v>
       </c>
       <c r="B74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.0253000000000011E-2</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>8.7110999999999994E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-7.327800000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>40</v>
       </c>
       <c r="B75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.3613999999999987E-2</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-2.665099999999998E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-8.8924000000000031E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>50</v>
       </c>
       <c r="B76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.5468999999999964E-2</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.4382000000000021E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1.0986999999999969E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>60</v>
       </c>
       <c r="B77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-3.3781000000000005E-2</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9.1119000000000006E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-7.5674999999999992E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>70</v>
       </c>
       <c r="B78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-6.0240999999999989E-2</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.4995000000000016E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-2.2987000000000035E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>80</v>
       </c>
       <c r="B79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-4.9009999999999887E-3</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-5.2232000000000001E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2.3849000000000009E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>90</v>
       </c>
       <c r="B80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-1.2043000000000026E-2</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.7372000000000081E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.333000000000033E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>100</v>
       </c>
       <c r="B81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>-3.4772999999999998E-2</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-7.9026999999999958E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>-1.3778000000000068E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>15</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>24</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>28</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>31</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>33</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>33</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>33</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>33</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>41</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>43</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>46</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>46</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>46</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>46</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>46</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>53</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>53</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>53</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>53</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>53</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>59</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>59</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>63</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>65</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>65</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>65</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>65</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>65</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>65</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>65</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>65</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>65</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>65</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>79</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>82</v>
       </c>
